--- a/data_year/zb/资源和环境/造林面积.xlsx
+++ b/data_year/zb/资源和环境/造林面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,518 +483,360 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1841.209</v>
+      </c>
       <c r="C2" t="n">
-        <v>5018.88467</v>
+        <v>3872.762</v>
       </c>
       <c r="D2" t="n">
-        <v>579.194</v>
+        <v>195.948</v>
       </c>
       <c r="E2" t="n">
-        <v>9.522</v>
+        <v>26.767</v>
       </c>
       <c r="F2" t="n">
-        <v>871.1319999999999</v>
+        <v>809.937</v>
       </c>
       <c r="G2" t="n">
-        <v>456.691</v>
+        <v>1110.896</v>
       </c>
       <c r="H2" t="n">
-        <v>49.966</v>
+        <v>18.887</v>
       </c>
       <c r="I2" t="n">
-        <v>5598.07867</v>
+        <v>5909.919</v>
       </c>
       <c r="J2" t="n">
-        <v>4210.76767</v>
+        <v>3943.432</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1755.849</v>
+        <v>1733.989</v>
       </c>
       <c r="C3" t="n">
-        <v>3231.55598</v>
+        <v>4065.693</v>
       </c>
       <c r="D3" t="n">
-        <v>416.3864</v>
+        <v>196.931</v>
       </c>
       <c r="E3" t="n">
-        <v>8.291</v>
+        <v>33.38</v>
       </c>
       <c r="F3" t="n">
-        <v>607.547</v>
+        <v>1019.32</v>
       </c>
       <c r="G3" t="n">
-        <v>337.81633</v>
+        <v>1218.281</v>
       </c>
       <c r="H3" t="n">
-        <v>16.07433</v>
+        <v>36.805</v>
       </c>
       <c r="I3" t="n">
-        <v>5403.791</v>
+        <v>5996.613</v>
       </c>
       <c r="J3" t="n">
-        <v>2678.21372</v>
+        <v>3688.827</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1120.869</v>
+        <v>1638.678</v>
       </c>
       <c r="C4" t="n">
-        <v>2446.1222</v>
+        <v>3820.704</v>
       </c>
       <c r="D4" t="n">
-        <v>271.803</v>
+        <v>136.409</v>
       </c>
       <c r="E4" t="n">
-        <v>3.45</v>
+        <v>28.353</v>
       </c>
       <c r="F4" t="n">
-        <v>481.629</v>
+        <v>774.398</v>
       </c>
       <c r="G4" t="n">
-        <v>403.3224</v>
+        <v>1101.053</v>
       </c>
       <c r="H4" t="n">
-        <v>4.837</v>
+        <v>41.145</v>
       </c>
       <c r="I4" t="n">
-        <v>3838.794</v>
+        <v>5595.791</v>
       </c>
       <c r="J4" t="n">
-        <v>1824.6868</v>
+        <v>3650.842</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1050.519</v>
+        <v>1735.971</v>
       </c>
       <c r="C5" t="n">
-        <v>2738.521</v>
+        <v>4209.686</v>
       </c>
       <c r="D5" t="n">
-        <v>118.671</v>
+        <v>154.4</v>
       </c>
       <c r="E5" t="n">
-        <v>20.762</v>
+        <v>35.516</v>
       </c>
       <c r="F5" t="n">
-        <v>610.367</v>
+        <v>1057.558</v>
       </c>
       <c r="G5" t="n">
-        <v>478.417</v>
+        <v>1233.676</v>
       </c>
       <c r="H5" t="n">
-        <v>7.993</v>
+        <v>24.898</v>
       </c>
       <c r="I5" t="n">
-        <v>3907.711</v>
+        <v>6100.057</v>
       </c>
       <c r="J5" t="n">
-        <v>2790.172</v>
+        <v>3748.409</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1515.409</v>
+        <v>1388.645</v>
       </c>
       <c r="C6" t="n">
-        <v>3684.913</v>
+        <v>4052.912</v>
       </c>
       <c r="D6" t="n">
-        <v>154.065</v>
+        <v>108.055</v>
       </c>
       <c r="E6" t="n">
-        <v>19.672</v>
+        <v>42.456</v>
       </c>
       <c r="F6" t="n">
-        <v>782.109</v>
+        <v>1092.351</v>
       </c>
       <c r="G6" t="n">
-        <v>850.774</v>
+        <v>1139.192</v>
       </c>
       <c r="H6" t="n">
-        <v>4.02</v>
+        <v>36.95</v>
       </c>
       <c r="I6" t="n">
-        <v>5354.387</v>
+        <v>5549.612</v>
       </c>
       <c r="J6" t="n">
-        <v>3697.812</v>
+        <v>3238.663</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1879.7</v>
+        <v>2152.877</v>
       </c>
       <c r="C7" t="n">
-        <v>4156.293</v>
+        <v>4362.589</v>
       </c>
       <c r="D7" t="n">
-        <v>226.337</v>
-      </c>
-      <c r="E7" t="n">
-        <v>27.099</v>
-      </c>
-      <c r="F7" t="n">
-        <v>801.317</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1002.555</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23.705</v>
-      </c>
+        <v>128.39</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>6262.33</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4407.654</v>
-      </c>
+        <v>7683.695</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1841.209</v>
+        <v>1953.638</v>
       </c>
       <c r="C8" t="n">
-        <v>3872.762</v>
+        <v>3823.656</v>
       </c>
       <c r="D8" t="n">
-        <v>195.948</v>
-      </c>
-      <c r="E8" t="n">
-        <v>26.767</v>
-      </c>
-      <c r="F8" t="n">
-        <v>809.937</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1110.896</v>
-      </c>
-      <c r="H8" t="n">
-        <v>18.887</v>
-      </c>
+        <v>162.322</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>5909.919</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3943.432</v>
-      </c>
+        <v>7203.509</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1733.989</v>
+        <v>1657.169</v>
       </c>
       <c r="C9" t="n">
-        <v>4065.693</v>
+        <v>4295.89</v>
       </c>
       <c r="D9" t="n">
-        <v>196.931</v>
-      </c>
-      <c r="E9" t="n">
-        <v>33.38</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1019.32</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1218.281</v>
-      </c>
-      <c r="H9" t="n">
-        <v>36.805</v>
-      </c>
+        <v>141.22</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>5996.613</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3688.827</v>
-      </c>
+        <v>7680.711</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1638.678</v>
+        <v>1785.067</v>
       </c>
       <c r="C10" t="n">
-        <v>3820.704</v>
+        <v>3677.952</v>
       </c>
       <c r="D10" t="n">
-        <v>136.409</v>
-      </c>
-      <c r="E10" t="n">
-        <v>28.353</v>
-      </c>
-      <c r="F10" t="n">
-        <v>774.398</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1101.053</v>
-      </c>
-      <c r="H10" t="n">
-        <v>41.145</v>
-      </c>
+        <v>135.429</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>5595.791</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3650.842</v>
-      </c>
+        <v>7299.473</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1735.971</v>
+        <v>1898.314</v>
       </c>
       <c r="C11" t="n">
-        <v>4209.686</v>
+        <v>3458.315</v>
       </c>
       <c r="D11" t="n">
-        <v>154.4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>35.516</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1057.558</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1233.676</v>
-      </c>
-      <c r="H11" t="n">
-        <v>24.898</v>
-      </c>
+        <v>125.565</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>6100.057</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3748.409</v>
-      </c>
+        <v>7390.294</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1388.645</v>
+        <v>1774.608</v>
       </c>
       <c r="C12" t="n">
-        <v>4052.912</v>
+        <v>3000.06</v>
       </c>
       <c r="D12" t="n">
-        <v>108.055</v>
-      </c>
-      <c r="E12" t="n">
-        <v>42.456</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1092.351</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1139.192</v>
-      </c>
-      <c r="H12" t="n">
-        <v>36.95</v>
-      </c>
+        <v>151.496</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>5549.612</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3238.663</v>
-      </c>
+        <v>6933.696</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2152.877</v>
+        <v>1235.098</v>
       </c>
       <c r="C13" t="n">
-        <v>4362.589</v>
+        <v>1085.095</v>
       </c>
       <c r="D13" t="n">
-        <v>128.39</v>
+        <v>172.239</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>7683.695</v>
+        <v>3754.373</v>
       </c>
       <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1953.638</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>3823.656</v>
-      </c>
-      <c r="D14" t="n">
-        <v>162.322</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>7203.509</v>
+        <v>3830</v>
       </c>
       <c r="J14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1657.169</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4295.89</v>
-      </c>
-      <c r="D15" t="n">
-        <v>141.22</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>7680.711</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1785.067</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3677.952</v>
-      </c>
-      <c r="D16" t="n">
-        <v>135.429</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>7299.473</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1898.314</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3458.315</v>
-      </c>
-      <c r="D17" t="n">
-        <v>125.565</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>7390.294</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1774.608</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3000.06</v>
-      </c>
-      <c r="D18" t="n">
-        <v>151.496</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>6933.696</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
